--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L8-遵循法令作業/JcicZ044.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L8-遵循法令作業/JcicZ044.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L8-遵循法令作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\v06v2\Desktop\CD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{629710DE-9FAC-4F4D-A7C6-FA59EA976A21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C83237F-EB7B-49F6-840C-21DDA9E5DB4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="492" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="4" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="135">
   <si>
     <t>讀取Key條件</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -642,6 +642,22 @@
     <t>單格空白:非屬二階段還款
 1:屬二階段還款方案之第一階段
 2:屬二階段還款方案之第二階段</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>ActualFilingDate</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>實際報送日期</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>ActualFilingMark</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>實際報送記號</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
@@ -1237,7 +1253,7 @@
   <dimension ref="A1:J107"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G42" sqref="G42"/>
+      <selection activeCell="A49" sqref="A49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2"/>
@@ -2217,12 +2233,40 @@
       <c r="H46" s="19"/>
     </row>
     <row r="47" spans="1:10">
-      <c r="A47" s="18"/>
+      <c r="A47" s="18">
+        <v>39</v>
+      </c>
+      <c r="B47" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="C47" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="D47" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E47" s="21">
+        <v>8</v>
+      </c>
       <c r="F47" s="18"/>
       <c r="G47" s="18"/>
     </row>
     <row r="48" spans="1:10">
-      <c r="A48" s="18"/>
+      <c r="A48" s="18">
+        <v>40</v>
+      </c>
+      <c r="B48" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="C48" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="D48" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="E48" s="21">
+        <v>3</v>
+      </c>
       <c r="F48" s="18"/>
       <c r="G48" s="18"/>
     </row>

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L8-遵循法令作業/JcicZ044.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L8-遵循法令作業/JcicZ044.xlsx
@@ -5,23 +5,33 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\v06v2\Desktop\CD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.10.16\St1Share(NAS)\SKL\DB\GenTables\L8-遵循法令作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C83237F-EB7B-49F6-840C-21DDA9E5DB4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EF1476A-FE3A-47EA-BDA2-017C86B310AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="492" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="492" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="4" r:id="rId1"/>
     <sheet name="DBS" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="137">
   <si>
     <t>讀取Key條件</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -659,6 +669,14 @@
   <si>
     <t>實際報送記號</t>
     <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>findkeyFilingDate</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">ActualFilingDate= , AND ActualFilingMark= </t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1252,7 +1270,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A49" sqref="A49"/>
     </sheetView>
   </sheetViews>
@@ -2579,11 +2597,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
+      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>
@@ -2668,6 +2686,17 @@
         <v>120</v>
       </c>
     </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
